--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.0967353000399</v>
+        <v>811.5303993769754</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.683689286852</v>
+        <v>1110.371694622007</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.6030003444308</v>
+        <v>1004.399378503743</v>
       </c>
       <c r="AD2" t="n">
-        <v>751096.7353000399</v>
+        <v>811530.3993769754</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027683.689286852</v>
+        <v>1110371.694622007</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.009120335604283e-06</v>
+        <v>2.896477291723847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.12708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>929603.0003444308</v>
+        <v>1004399.378503743</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.8442075833155</v>
+        <v>309.2924274192288</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.0539700861733</v>
+        <v>423.1875442138706</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.1639069762099</v>
+        <v>382.7991189415466</v>
       </c>
       <c r="AD3" t="n">
-        <v>274844.2075833155</v>
+        <v>309292.4274192288</v>
       </c>
       <c r="AE3" t="n">
-        <v>376053.9700861733</v>
+        <v>423187.5442138707</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.730118926885413e-06</v>
+        <v>5.377579717694384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.147916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>340163.90697621</v>
+        <v>382799.1189415467</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.6180917523696</v>
+        <v>242.5182846473707</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.3864296511977</v>
+        <v>331.8242162059879</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.0997247863414</v>
+        <v>300.1553787295995</v>
       </c>
       <c r="AD4" t="n">
-        <v>216618.0917523696</v>
+        <v>242518.2846473707</v>
       </c>
       <c r="AE4" t="n">
-        <v>296386.4296511977</v>
+        <v>331824.2162059878</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.339332296147937e-06</v>
+        <v>6.255860952826447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.004166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>268099.7247863414</v>
+        <v>300155.3787295995</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.7561794479949</v>
+        <v>210.5710314884244</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.7915555880089</v>
+        <v>288.1125750206014</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.6654843179394</v>
+        <v>260.6155152292587</v>
       </c>
       <c r="AD5" t="n">
-        <v>184756.1794479949</v>
+        <v>210571.0314884244</v>
       </c>
       <c r="AE5" t="n">
-        <v>252791.5555880089</v>
+        <v>288112.5750206014</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.683619545060667e-06</v>
+        <v>6.752207627853188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.489583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>228665.4843179394</v>
+        <v>260615.5152292587</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.490982167946</v>
+        <v>198.3058342083755</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.0097715671396</v>
+        <v>271.330790999732</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.4853302106347</v>
+        <v>245.435361121954</v>
       </c>
       <c r="AD6" t="n">
-        <v>172490.982167946</v>
+        <v>198305.8342083755</v>
       </c>
       <c r="AE6" t="n">
-        <v>236009.7715671395</v>
+        <v>271330.790999732</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.848906601424277e-06</v>
+        <v>6.990496095143569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.26875</v>
       </c>
       <c r="AH6" t="n">
-        <v>213485.3302106347</v>
+        <v>245435.361121954</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>167.3896216971222</v>
+        <v>193.2044737375518</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.0298651148216</v>
+        <v>264.3508845474142</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.1715762337636</v>
+        <v>239.1216071450829</v>
       </c>
       <c r="AD7" t="n">
-        <v>167389.6216971222</v>
+        <v>193204.4737375518</v>
       </c>
       <c r="AE7" t="n">
-        <v>229029.8651148216</v>
+        <v>264350.8845474142</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92739242342218e-06</v>
+        <v>7.103646311738648e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.16875</v>
       </c>
       <c r="AH7" t="n">
-        <v>207171.5762337636</v>
+        <v>239121.6071450829</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.7961206364868</v>
+        <v>511.300661966505</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.4815811449436</v>
+        <v>699.5841226957862</v>
       </c>
       <c r="AC2" t="n">
-        <v>570.3093039269262</v>
+        <v>632.8167958981827</v>
       </c>
       <c r="AD2" t="n">
-        <v>460796.1206364868</v>
+        <v>511300.661966505</v>
       </c>
       <c r="AE2" t="n">
-        <v>630481.5811449436</v>
+        <v>699584.1226957862</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649470748544577e-06</v>
+        <v>3.878725505554057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>570309.3039269262</v>
+        <v>632816.7958981827</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.9213042277711</v>
+        <v>250.4204062471906</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.8012983368321</v>
+        <v>342.6362475958567</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.4749989868909</v>
+        <v>309.9355250184041</v>
       </c>
       <c r="AD3" t="n">
-        <v>216921.3042277711</v>
+        <v>250420.4062471905</v>
       </c>
       <c r="AE3" t="n">
-        <v>296801.2983368321</v>
+        <v>342636.2475958567</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.227442162692567e-06</v>
+        <v>6.188816294234464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>268474.9989868909</v>
+        <v>309935.5250184041</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.8815299540123</v>
+        <v>197.2191414735927</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.1758921609018</v>
+        <v>269.843930058503</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.7310350845709</v>
+        <v>244.0904041021329</v>
       </c>
       <c r="AD4" t="n">
-        <v>171881.5299540123</v>
+        <v>197219.1414735927</v>
       </c>
       <c r="AE4" t="n">
-        <v>235175.8921609018</v>
+        <v>269843.9300585029</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.806806380262778e-06</v>
+        <v>7.036983713682061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.541666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>212731.0350845709</v>
+        <v>244090.4041021329</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.2998728117121</v>
+        <v>182.4668921307003</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.2246255615052</v>
+        <v>249.6592516842595</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.6838893676359</v>
+        <v>225.8321231025468</v>
       </c>
       <c r="AD5" t="n">
-        <v>157299.8728117121</v>
+        <v>182466.8921307003</v>
       </c>
       <c r="AE5" t="n">
-        <v>215224.6255615052</v>
+        <v>249659.2516842595</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.04887468059688e-06</v>
+        <v>7.391362599015207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.227083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>194683.8893676359</v>
+        <v>225832.1231025468</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.5366336176937</v>
+        <v>182.7036529366819</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.5485721413987</v>
+        <v>249.9831982641529</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.9769189406063</v>
+        <v>226.1251526755172</v>
       </c>
       <c r="AD6" t="n">
-        <v>157536.6336176937</v>
+        <v>182703.6529366819</v>
       </c>
       <c r="AE6" t="n">
-        <v>215548.5721413987</v>
+        <v>249983.1982641529</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.054458550367679e-06</v>
+        <v>7.399537174300324e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.220833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>194976.9189406063</v>
+        <v>226125.1526755172</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.600559574068</v>
+        <v>193.4991223104348</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.4772590395526</v>
+        <v>264.7540357238101</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.2443416856758</v>
+        <v>239.48628213903</v>
       </c>
       <c r="AD2" t="n">
-        <v>162600.559574068</v>
+        <v>193499.1223104348</v>
       </c>
       <c r="AE2" t="n">
-        <v>222477.2590395526</v>
+        <v>264754.0357238101</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736070364965732e-06</v>
+        <v>7.327285441573139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>201244.3416856758</v>
+        <v>239486.28213903</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.6625288249082</v>
+        <v>166.6463429072956</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.6194569465285</v>
+        <v>228.0128782834354</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.9041964941481</v>
+        <v>206.2516491982146</v>
       </c>
       <c r="AD3" t="n">
-        <v>135662.5288249082</v>
+        <v>166646.3429072956</v>
       </c>
       <c r="AE3" t="n">
-        <v>185619.4569465285</v>
+        <v>228012.8782834354</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.194622477176004e-06</v>
+        <v>8.036722159586356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.754166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167904.1964941481</v>
+        <v>206251.6491982146</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.6613090713711</v>
+        <v>276.6832957755254</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.8104438313831</v>
+        <v>378.5702916855996</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.9064295430243</v>
+        <v>342.4400743738666</v>
       </c>
       <c r="AD2" t="n">
-        <v>236661.3090713711</v>
+        <v>276683.2957755254</v>
       </c>
       <c r="AE2" t="n">
-        <v>323810.4438313831</v>
+        <v>378570.2916855996</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866461298288412e-06</v>
+        <v>5.843359639307762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.68125</v>
       </c>
       <c r="AH2" t="n">
-        <v>292906.4295430243</v>
+        <v>342440.0743738666</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.7566078690073</v>
+        <v>167.9063452588124</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.694132980225</v>
+        <v>229.7368690881604</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.9219209905976</v>
+        <v>207.8111047401735</v>
       </c>
       <c r="AD3" t="n">
-        <v>143756.6078690073</v>
+        <v>167906.3452588124</v>
       </c>
       <c r="AE3" t="n">
-        <v>196694.1329802251</v>
+        <v>229736.8690881604</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.158181577024933e-06</v>
+        <v>7.795528705473164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.506250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>177921.9209905975</v>
+        <v>207811.1047401735</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.264492842135</v>
+        <v>166.2436380313479</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.6525553729903</v>
+        <v>227.4618797060788</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.0751886848245</v>
+        <v>205.7532371517494</v>
       </c>
       <c r="AD4" t="n">
-        <v>142264.492842135</v>
+        <v>166243.6380313479</v>
       </c>
       <c r="AE4" t="n">
-        <v>194652.5553729903</v>
+        <v>227461.8797060788</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.206351240699443e-06</v>
+        <v>7.868327227646206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.445833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>176075.1886848245</v>
+        <v>205753.2371517494</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.7126636934956</v>
+        <v>162.3891881134698</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.161030153067</v>
+        <v>222.1880512821116</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.9168897315031</v>
+        <v>200.9827355106993</v>
       </c>
       <c r="AD2" t="n">
-        <v>139712.6636934956</v>
+        <v>162389.1881134698</v>
       </c>
       <c r="AE2" t="n">
-        <v>191161.030153067</v>
+        <v>222188.0512821116</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.062223245556823e-06</v>
+        <v>8.000783044035352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.197916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172916.8897315031</v>
+        <v>200982.7355106992</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.7428510233271</v>
+        <v>162.4193754433013</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.2023337895134</v>
+        <v>222.229354918558</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.9542514068571</v>
+        <v>201.0200971860532</v>
       </c>
       <c r="AD3" t="n">
-        <v>139742.8510233271</v>
+        <v>162419.3754433013</v>
       </c>
       <c r="AE3" t="n">
-        <v>191202.3337895134</v>
+        <v>222229.354918558</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.084959875667464e-06</v>
+        <v>8.03671801486608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.164583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172954.2514068571</v>
+        <v>201020.0971860532</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.2141414079684</v>
+        <v>578.4480791204791</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.4116943856699</v>
+        <v>791.4581811808273</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.6109993425762</v>
+        <v>715.9225231874624</v>
       </c>
       <c r="AD2" t="n">
-        <v>519214.1414079684</v>
+        <v>578448.0791204791</v>
       </c>
       <c r="AE2" t="n">
-        <v>710411.6943856699</v>
+        <v>791458.1811808273</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480747357748263e-06</v>
+        <v>3.616647559107136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.56041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>642610.9993425761</v>
+        <v>715922.5231874624</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.6786738495244</v>
+        <v>262.5754044592884</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.8882501518466</v>
+        <v>359.267252390486</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.0266346988643</v>
+        <v>324.9792900570928</v>
       </c>
       <c r="AD3" t="n">
-        <v>228678.6738495243</v>
+        <v>262575.4044592885</v>
       </c>
       <c r="AE3" t="n">
-        <v>312888.2501518467</v>
+        <v>359267.252390486</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095244718747388e-06</v>
+        <v>5.970401125186688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.608333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>283026.6346988643</v>
+        <v>324979.2900570928</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.1823914467886</v>
+        <v>214.9937812019778</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.9017411803617</v>
+        <v>294.1639762966288</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.2423469344589</v>
+        <v>266.089379260699</v>
       </c>
       <c r="AD4" t="n">
-        <v>181182.3914467886</v>
+        <v>214993.7812019778</v>
       </c>
       <c r="AE4" t="n">
-        <v>247901.7411803617</v>
+        <v>294163.9762966288</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.677480774918726e-06</v>
+        <v>6.819235088387031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.660416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>224242.3469344589</v>
+        <v>266089.379260699</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.6031717374269</v>
+        <v>185.9404683487269</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.7443448829293</v>
+        <v>254.4119519091286</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.7722530204906</v>
+        <v>230.1312322884125</v>
       </c>
       <c r="AD5" t="n">
-        <v>160603.1717374269</v>
+        <v>185940.468348727</v>
       </c>
       <c r="AE5" t="n">
-        <v>219744.3448829293</v>
+        <v>254411.9519091286</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.01264414555319e-06</v>
+        <v>7.307865170979368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.216666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>198772.2530204906</v>
+        <v>230131.2322884125</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.2332677444378</v>
+        <v>182.5705643557379</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.1334935700523</v>
+        <v>249.8011005962516</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.6014548855428</v>
+        <v>225.9604341534646</v>
       </c>
       <c r="AD6" t="n">
-        <v>157233.2677444378</v>
+        <v>182570.5643557379</v>
       </c>
       <c r="AE6" t="n">
-        <v>215133.4935700523</v>
+        <v>249801.1005962516</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.081292064839767e-06</v>
+        <v>7.407946031269365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.131250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>194601.4548855427</v>
+        <v>225960.4341534646</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.9789203392218</v>
+        <v>167.7203682633966</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.7888460083922</v>
+        <v>229.4824071583067</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.771103512214</v>
+        <v>207.5809282997654</v>
       </c>
       <c r="AD2" t="n">
-        <v>137978.9203392218</v>
+        <v>167720.3682633966</v>
       </c>
       <c r="AE2" t="n">
-        <v>188788.8460083922</v>
+        <v>229482.4071583067</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.941819094894796e-06</v>
+        <v>7.917955011851812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.545833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170771.1035122139</v>
+        <v>207580.9282997654</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.2232091937895</v>
+        <v>377.3040219576334</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.0354279400643</v>
+        <v>516.244008321105</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.1302923612421</v>
+        <v>466.9744047199542</v>
       </c>
       <c r="AD2" t="n">
-        <v>336223.2091937895</v>
+        <v>377304.0219576334</v>
       </c>
       <c r="AE2" t="n">
-        <v>460035.4279400643</v>
+        <v>516244.0083211049</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.205885102320786e-06</v>
+        <v>4.760236684959741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>416130.2923612421</v>
+        <v>466974.4047199542</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.7567177074169</v>
+        <v>207.6042281407365</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.1098508894395</v>
+        <v>284.0532637941706</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.289542313404</v>
+        <v>256.9436189689981</v>
       </c>
       <c r="AD3" t="n">
-        <v>174756.7177074169</v>
+        <v>207604.2281407365</v>
       </c>
       <c r="AE3" t="n">
-        <v>239109.8508894395</v>
+        <v>284053.2637941706</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.670286396998115e-06</v>
+        <v>6.934642985228965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.935416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>216289.542313404</v>
+        <v>256943.6189689981</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.0125486076458</v>
+        <v>174.6269357275436</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.2537870914528</v>
+        <v>238.9322774590001</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.6646537270024</v>
+        <v>216.1289162419398</v>
       </c>
       <c r="AD4" t="n">
-        <v>150012.5486076458</v>
+        <v>174626.9357275436</v>
       </c>
       <c r="AE4" t="n">
-        <v>205253.7870914527</v>
+        <v>238932.2774590001</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.126959427627475e-06</v>
+        <v>7.61273082807147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.318749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>185664.6537270024</v>
+        <v>216128.9162419398</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.7279306685972</v>
+        <v>174.3423177884951</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.8643602707894</v>
+        <v>238.5428506383367</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.3123932555391</v>
+        <v>215.7766557704765</v>
       </c>
       <c r="AD5" t="n">
-        <v>149727.9306685972</v>
+        <v>174342.3177884951</v>
       </c>
       <c r="AE5" t="n">
-        <v>204864.3602707894</v>
+        <v>238542.8506383367</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.142819369447086e-06</v>
+        <v>7.636280354789188e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.297916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>185312.3932555391</v>
+        <v>215776.6557704765</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.3362171234431</v>
+        <v>467.3166616527311</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.0178238427715</v>
+        <v>639.4032730293361</v>
       </c>
       <c r="AC2" t="n">
-        <v>516.5206841637658</v>
+        <v>578.3795220595455</v>
       </c>
       <c r="AD2" t="n">
-        <v>417336.2171234431</v>
+        <v>467316.6616527311</v>
       </c>
       <c r="AE2" t="n">
-        <v>571017.8238427715</v>
+        <v>639403.2730293361</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825157168661455e-06</v>
+        <v>4.154231111052495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>516520.6841637659</v>
+        <v>578379.5220595455</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.6538424915044</v>
+        <v>238.9172747774986</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.3846601039505</v>
+        <v>326.8971556366878</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.529703069563</v>
+        <v>295.698549905859</v>
       </c>
       <c r="AD3" t="n">
-        <v>205653.8424915044</v>
+        <v>238917.2747774986</v>
       </c>
       <c r="AE3" t="n">
-        <v>281384.6601039505</v>
+        <v>326897.1556366878</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364185302711176e-06</v>
+        <v>6.417283455953935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.272916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>254529.703069563</v>
+        <v>295698.549905859</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.7962462351685</v>
+        <v>188.7865132540877</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.1132502792421</v>
+        <v>258.306036107281</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.7241962175779</v>
+        <v>233.653670556076</v>
       </c>
       <c r="AD4" t="n">
-        <v>163796.2462351685</v>
+        <v>188786.5132540877</v>
       </c>
       <c r="AE4" t="n">
-        <v>224113.2502792421</v>
+        <v>258306.036107281</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.924067345141657e-06</v>
+        <v>7.240557794452529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.445833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>202724.1962175779</v>
+        <v>233653.670556076</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.9456499492647</v>
+        <v>179.9359169681838</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.0034739801237</v>
+        <v>246.1962598081626</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.7701599722657</v>
+        <v>222.6996343107638</v>
       </c>
       <c r="AD5" t="n">
-        <v>154945.6499492647</v>
+        <v>179935.9169681838</v>
       </c>
       <c r="AE5" t="n">
-        <v>212003.4739801237</v>
+        <v>246196.2598081626</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.072912176557871e-06</v>
+        <v>7.459425557367665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.256250000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>191770.1599722657</v>
+        <v>222699.6343107638</v>
       </c>
     </row>
   </sheetData>
@@ -7663,28 +7663,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>662.0984275316923</v>
+        <v>722.087142643976</v>
       </c>
       <c r="AB2" t="n">
-        <v>905.9122782699662</v>
+        <v>987.991484801922</v>
       </c>
       <c r="AC2" t="n">
-        <v>819.4532818877481</v>
+        <v>893.6989641471836</v>
       </c>
       <c r="AD2" t="n">
-        <v>662098.4275316923</v>
+        <v>722087.142643976</v>
       </c>
       <c r="AE2" t="n">
-        <v>905912.2782699662</v>
+        <v>987991.484801922</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161056100390982e-06</v>
+        <v>3.126556551407308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>819453.281887748</v>
+        <v>893698.9641471836</v>
       </c>
     </row>
     <row r="3">
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.6222559864901</v>
+        <v>295.3615503189959</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.6489155479196</v>
+        <v>404.1267035784095</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.6606681694291</v>
+        <v>365.5574181842762</v>
       </c>
       <c r="AD3" t="n">
-        <v>252622.2559864901</v>
+        <v>295361.5503189959</v>
       </c>
       <c r="AE3" t="n">
-        <v>345648.9155479196</v>
+        <v>404126.7035784096</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.851697226288854e-06</v>
+        <v>5.572529650994259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.954166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>312660.6681694291</v>
+        <v>365557.4181842762</v>
       </c>
     </row>
     <row r="4">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.4794574461392</v>
+        <v>233.7220974248838</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.9365940902425</v>
+        <v>319.7888847877949</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.8879086192654</v>
+        <v>289.2686824502613</v>
       </c>
       <c r="AD4" t="n">
-        <v>199479.4574461392</v>
+        <v>233722.0974248838</v>
       </c>
       <c r="AE4" t="n">
-        <v>272936.5940902425</v>
+        <v>319788.8847877949</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.437399896937825e-06</v>
+        <v>6.419908171969715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.904166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>246887.9086192654</v>
+        <v>289268.6824502613</v>
       </c>
     </row>
     <row r="5">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.2544019265776</v>
+        <v>202.9151362055442</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.5272926281444</v>
+        <v>277.6374413403076</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.3808282089776</v>
+        <v>251.1401136054664</v>
       </c>
       <c r="AD5" t="n">
-        <v>177254.4019265776</v>
+        <v>202915.1362055442</v>
       </c>
       <c r="AE5" t="n">
-        <v>242527.2926281444</v>
+        <v>277637.4413403076</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.780910175279778e-06</v>
+        <v>6.916889398431846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.408333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>219380.8282089776</v>
+        <v>251140.1136054664</v>
       </c>
     </row>
     <row r="6">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.1403468618662</v>
+        <v>191.8010811408328</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.3205521711093</v>
+        <v>262.4307008832726</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.6253977183628</v>
+        <v>237.3846831148516</v>
       </c>
       <c r="AD6" t="n">
-        <v>166140.3468618662</v>
+        <v>191801.0811408329</v>
       </c>
       <c r="AE6" t="n">
-        <v>227320.5521711093</v>
+        <v>262430.7008832726</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.932960529648605e-06</v>
+        <v>7.136871670761402e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.210416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>205625.3977183629</v>
+        <v>237384.6831148517</v>
       </c>
     </row>
     <row r="7">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.3615255765221</v>
+        <v>191.0222598554887</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.2549345293318</v>
+        <v>261.3650832414951</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.6614811287125</v>
+        <v>236.4207665252013</v>
       </c>
       <c r="AD7" t="n">
-        <v>165361.5255765221</v>
+        <v>191022.2598554887</v>
       </c>
       <c r="AE7" t="n">
-        <v>226254.9345293318</v>
+        <v>261365.0832414951</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949430200528014e-06</v>
+        <v>7.16069953778356e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.189583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>204661.4811287125</v>
+        <v>236420.7665252014</v>
       </c>
     </row>
   </sheetData>
@@ -8490,28 +8490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.953537751491</v>
+        <v>302.3368641928377</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.3623398611456</v>
+        <v>413.6706357497297</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.110916548097</v>
+        <v>374.1904908641584</v>
       </c>
       <c r="AD2" t="n">
-        <v>269953.5377514909</v>
+        <v>302336.8641928377</v>
       </c>
       <c r="AE2" t="n">
-        <v>369362.3398611456</v>
+        <v>413670.6357497297</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.630985502077095e-06</v>
+        <v>5.45259506225264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>334110.9165480969</v>
+        <v>374190.4908641584</v>
       </c>
     </row>
     <row r="3">
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9698075607633</v>
+        <v>176.3425761149314</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.9317951392776</v>
+        <v>241.2796923257349</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0870764453516</v>
+        <v>218.2522971284116</v>
       </c>
       <c r="AD3" t="n">
-        <v>151969.8075607633</v>
+        <v>176342.5761149314</v>
       </c>
       <c r="AE3" t="n">
-        <v>207931.7951392776</v>
+        <v>241279.6923257349</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.033012983228753e-06</v>
+        <v>7.557998159152066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.585416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>188087.0764453516</v>
+        <v>218252.2971284117</v>
       </c>
     </row>
     <row r="4">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.5895334118573</v>
+        <v>168.7917097654332</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.8337784540334</v>
+        <v>230.9482638656438</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.9528002998885</v>
+        <v>208.9068857002975</v>
       </c>
       <c r="AD4" t="n">
-        <v>144589.5334118573</v>
+        <v>168791.7097654332</v>
       </c>
       <c r="AE4" t="n">
-        <v>197833.7784540334</v>
+        <v>230948.2638656438</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.188599375667913e-06</v>
+        <v>7.791639850831136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3875</v>
       </c>
       <c r="AH4" t="n">
-        <v>178952.8002998884</v>
+        <v>208906.8857002975</v>
       </c>
     </row>
   </sheetData>
@@ -8999,28 +8999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5544040222162</v>
+        <v>214.9871719905375</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.1472334318694</v>
+        <v>294.1549332819584</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.1780939605608</v>
+        <v>266.0811992986568</v>
       </c>
       <c r="AD2" t="n">
-        <v>183554.4040222162</v>
+        <v>214987.1719905376</v>
       </c>
       <c r="AE2" t="n">
-        <v>251147.2334318694</v>
+        <v>294154.9332819584</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.410509514828152e-06</v>
+        <v>6.764604629279601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.827083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227178.0939605608</v>
+        <v>266081.1992986568</v>
       </c>
     </row>
     <row r="3">
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.8465100773601</v>
+        <v>169.1939371911099</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.6076764465846</v>
+        <v>231.4986091744759</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.6072245191122</v>
+        <v>209.4047068252693</v>
       </c>
       <c r="AD3" t="n">
-        <v>137846.5100773601</v>
+        <v>169193.9371911099</v>
       </c>
       <c r="AE3" t="n">
-        <v>188607.6764465846</v>
+        <v>231498.6091744759</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204782372411144e-06</v>
+        <v>7.982818042322513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.633333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170607.2245191122</v>
+        <v>209404.7068252693</v>
       </c>
     </row>
     <row r="4">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.0507849206977</v>
+        <v>169.3982120344473</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.8871742992089</v>
+        <v>231.7781070271002</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.8600474889598</v>
+        <v>209.657529795117</v>
       </c>
       <c r="AD4" t="n">
-        <v>138050.7849206977</v>
+        <v>169398.2120344474</v>
       </c>
       <c r="AE4" t="n">
-        <v>188887.1742992089</v>
+        <v>231778.1070271002</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217708156448588e-06</v>
+        <v>8.002642921566692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.616666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>170860.0474889598</v>
+        <v>209657.529795117</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3458108691627</v>
+        <v>168.3506806479876</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8685506357247</v>
+        <v>230.3448283703236</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8888152768714</v>
+        <v>208.3610412417234</v>
       </c>
       <c r="AD2" t="n">
-        <v>145345.8108691627</v>
+        <v>168350.6806479876</v>
       </c>
       <c r="AE2" t="n">
-        <v>198868.5506357247</v>
+        <v>230344.8283703236</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.037315514575885e-06</v>
+        <v>7.870706128634901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.089583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>179888.8152768714</v>
+        <v>208361.0412417234</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.8600074113779</v>
+        <v>164.4477069171715</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.1531676269053</v>
+        <v>225.004607524775</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.67328636573</v>
+        <v>203.5304835786252</v>
       </c>
       <c r="AD3" t="n">
-        <v>133860.0074113779</v>
+        <v>164447.7069171715</v>
       </c>
       <c r="AE3" t="n">
-        <v>183153.1676269053</v>
+        <v>225004.607524775</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.154912875236054e-06</v>
+        <v>8.054449685015488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.929166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>165673.28636573</v>
+        <v>203530.4835786252</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.6339025845856</v>
+        <v>174.7156758752234</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.2627304304756</v>
+        <v>239.0536956439945</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.2453751052462</v>
+        <v>216.2387464457699</v>
       </c>
       <c r="AD2" t="n">
-        <v>145633.9025845856</v>
+        <v>174715.6758752234</v>
       </c>
       <c r="AE2" t="n">
-        <v>199262.7304304756</v>
+        <v>239053.6956439945</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668588198569822e-06</v>
+        <v>7.608286762461137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.210416666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>180245.3751052461</v>
+        <v>216238.7464457699</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.2321551874788</v>
+        <v>419.9299881682343</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.5679682174364</v>
+        <v>574.5667358153574</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.2218323033723</v>
+        <v>519.7308929586173</v>
       </c>
       <c r="AD2" t="n">
-        <v>370232.1551874788</v>
+        <v>419929.9881682343</v>
       </c>
       <c r="AE2" t="n">
-        <v>506567.9682174364</v>
+        <v>574566.7358153574</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.01184619054607e-06</v>
+        <v>4.449643748827885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.64375</v>
       </c>
       <c r="AH2" t="n">
-        <v>458221.8323033723</v>
+        <v>519730.8929586174</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.7588480552727</v>
+        <v>218.6505244814869</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.1094039461884</v>
+        <v>299.1672937757785</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.807734517027</v>
+        <v>270.6151871418405</v>
       </c>
       <c r="AD3" t="n">
-        <v>193758.8480552727</v>
+        <v>218650.5244814869</v>
       </c>
       <c r="AE3" t="n">
-        <v>265109.4039461884</v>
+        <v>299167.2937757785</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.521154419986471e-06</v>
+        <v>6.67946675548226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.089583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>239807.734517027</v>
+        <v>270615.1871418405</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.8152387361061</v>
+        <v>179.6215743077488</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.8250396049435</v>
+        <v>245.7661623123361</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.6087551234185</v>
+        <v>222.3105847162932</v>
       </c>
       <c r="AD4" t="n">
-        <v>154815.2387361061</v>
+        <v>179621.5743077488</v>
       </c>
       <c r="AE4" t="n">
-        <v>211825.0396049435</v>
+        <v>245766.1623123361</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.059236882862715e-06</v>
+        <v>7.474419457518181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.335416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>191608.7551234186</v>
+        <v>222310.5847162933</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.0310637242817</v>
+        <v>176.8373992959244</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.0156085246347</v>
+        <v>241.9567312320272</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.1628907988431</v>
+        <v>218.8647203917178</v>
       </c>
       <c r="AD5" t="n">
-        <v>152031.0637242817</v>
+        <v>176837.3992959244</v>
       </c>
       <c r="AE5" t="n">
-        <v>208015.6085246347</v>
+        <v>241956.7312320272</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.114168378214965e-06</v>
+        <v>7.555574194328826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.26875</v>
       </c>
       <c r="AH5" t="n">
-        <v>188162.8907988431</v>
+        <v>218864.7203917178</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.8395573811673</v>
+        <v>644.3718450655217</v>
       </c>
       <c r="AB2" t="n">
-        <v>800.2032837092212</v>
+        <v>881.6579860981267</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.8330054043748</v>
+        <v>797.5137853196761</v>
       </c>
       <c r="AD2" t="n">
-        <v>584839.5573811673</v>
+        <v>644371.8450655217</v>
       </c>
       <c r="AE2" t="n">
-        <v>800203.2837092212</v>
+        <v>881657.9860981267</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.320187998717431e-06</v>
+        <v>3.369305122171281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.31458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>723833.0054043748</v>
+        <v>797513.7853196762</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.958455868842</v>
+        <v>275.0743872316716</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.689989656417</v>
+        <v>376.3689120358635</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.2248397665132</v>
+        <v>340.4487913082456</v>
       </c>
       <c r="AD3" t="n">
-        <v>240958.4558688421</v>
+        <v>275074.3872316716</v>
       </c>
       <c r="AE3" t="n">
-        <v>329689.989656417</v>
+        <v>376368.9120358635</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.966619973267428e-06</v>
+        <v>5.760202621953355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.787500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>298224.8397665133</v>
+        <v>340448.7913082456</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.8204853916436</v>
+        <v>223.8510758998981</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.7207624015156</v>
+        <v>306.2829176585811</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.9333773583701</v>
+        <v>277.0517058681116</v>
       </c>
       <c r="AD4" t="n">
-        <v>189820.4853916436</v>
+        <v>223851.0758998981</v>
       </c>
       <c r="AE4" t="n">
-        <v>259720.7624015156</v>
+        <v>306282.9176585812</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.561939171557976e-06</v>
+        <v>6.624706716119876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>234933.3773583701</v>
+        <v>277051.7058681116</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.3933474455513</v>
+        <v>193.8950446216503</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.4032069650764</v>
+        <v>265.2957540968745</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.4138482653279</v>
+        <v>239.9762996708758</v>
       </c>
       <c r="AD5" t="n">
-        <v>168393.3474455513</v>
+        <v>193895.0446216503</v>
       </c>
       <c r="AE5" t="n">
-        <v>230403.2069650764</v>
+        <v>265295.7540968745</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.901634385327252e-06</v>
+        <v>7.118001580313026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>208413.8482653279</v>
+        <v>239976.2996708758</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.439441219067</v>
+        <v>187.941138395166</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.2568097982001</v>
+        <v>257.1493569299982</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.0449318105155</v>
+        <v>232.6073832160634</v>
       </c>
       <c r="AD6" t="n">
-        <v>162439.441219067</v>
+        <v>187941.138395166</v>
       </c>
       <c r="AE6" t="n">
-        <v>222256.8097982001</v>
+        <v>257149.3569299983</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>7.239871895953935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.195833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>201044.9318105155</v>
+        <v>232607.3832160634</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.9728904052642</v>
+        <v>188.4745875813633</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.986698508872</v>
+        <v>257.8792456406701</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.7051609670463</v>
+        <v>233.2676123725942</v>
       </c>
       <c r="AD7" t="n">
-        <v>162972.8904052642</v>
+        <v>188474.5875813633</v>
       </c>
       <c r="AE7" t="n">
-        <v>222986.698508872</v>
+        <v>257879.2456406701</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.985557340802333e-06</v>
+        <v>7.239871895953935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.195833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>201705.1609670463</v>
+        <v>233267.6123725942</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.0050951016036</v>
+        <v>191.5834149529087</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.4530535769746</v>
+        <v>262.1328804022004</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0813937268914</v>
+        <v>237.1152862024992</v>
       </c>
       <c r="AD2" t="n">
-        <v>156005.0951016036</v>
+        <v>191583.4149529087</v>
       </c>
       <c r="AE2" t="n">
-        <v>213453.0535769745</v>
+        <v>262132.8804022004</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12768322313341e-06</v>
+        <v>6.88060200955211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>193081.3937268914</v>
+        <v>237115.2862024992</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.516895448311</v>
+        <v>245.2018080055534</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.1432360528618</v>
+        <v>335.4959312533467</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.2614956296698</v>
+        <v>303.476670446124</v>
       </c>
       <c r="AD2" t="n">
-        <v>213516.895448311</v>
+        <v>245201.8080055534</v>
       </c>
       <c r="AE2" t="n">
-        <v>292143.2360528618</v>
+        <v>335495.9312533467</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.122665353705384e-06</v>
+        <v>6.274311700947445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.252083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>264261.4956296697</v>
+        <v>303476.670446124</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.1012588311677</v>
+        <v>164.0142226131866</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.6927231640371</v>
+        <v>224.4114951760853</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.3978387077422</v>
+        <v>202.9939770400559</v>
       </c>
       <c r="AD3" t="n">
-        <v>140101.2588311677</v>
+        <v>164014.2226131866</v>
       </c>
       <c r="AE3" t="n">
-        <v>191692.7231640371</v>
+        <v>224411.4951760853</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.203056464380929e-06</v>
+        <v>7.918566086333973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.539583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>173397.8387077422</v>
+        <v>202993.9770400559</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.1441762404728</v>
+        <v>164.0571400224918</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.7514446568309</v>
+        <v>224.4702166688791</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.4509559036799</v>
+        <v>203.0470942359936</v>
       </c>
       <c r="AD4" t="n">
-        <v>140144.1762404728</v>
+        <v>164057.1400224917</v>
       </c>
       <c r="AE4" t="n">
-        <v>191751.4446568309</v>
+        <v>224470.2166688791</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.217263542166415e-06</v>
+        <v>7.940187932091022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.520833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>173450.9559036799</v>
+        <v>203047.0942359936</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.7039128585824</v>
+        <v>338.5350186237383</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.3316273428138</v>
+        <v>463.1985475919543</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.4564685227444</v>
+        <v>418.9915283130219</v>
       </c>
       <c r="AD2" t="n">
-        <v>297703.9128585824</v>
+        <v>338535.0186237383</v>
       </c>
       <c r="AE2" t="n">
-        <v>407331.6273428138</v>
+        <v>463198.5475919542</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409844870651878e-06</v>
+        <v>5.090593872350043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.606250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>368456.4685227444</v>
+        <v>418991.5283130219</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.496235028222</v>
+        <v>196.0757787857747</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7027617103378</v>
+        <v>268.2795307874295</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.3528841015654</v>
+        <v>242.675308901842</v>
       </c>
       <c r="AD3" t="n">
-        <v>163496.235028222</v>
+        <v>196075.7787857747</v>
       </c>
       <c r="AE3" t="n">
-        <v>223702.7617103378</v>
+        <v>268279.5307874294</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842457673186915e-06</v>
+        <v>7.229356845646501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.764583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202352.8841015654</v>
+        <v>242675.308901842</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.4088933506291</v>
+        <v>171.8223054637018</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.6913511036412</v>
+        <v>235.0948586004589</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.4422116299561</v>
+        <v>212.6577352534054</v>
       </c>
       <c r="AD4" t="n">
-        <v>147408.8933506291</v>
+        <v>171822.3054637018</v>
       </c>
       <c r="AE4" t="n">
-        <v>201691.3511036412</v>
+        <v>235094.8586004589</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>7.697622004966787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.352083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>182442.2116299561</v>
+        <v>212657.7352534054</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.9637922513124</v>
+        <v>172.3772043643851</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.4505882599674</v>
+        <v>235.8540957567851</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.1289882576789</v>
+        <v>213.3445118811282</v>
       </c>
       <c r="AD5" t="n">
-        <v>147963.7922513124</v>
+        <v>172377.2043643851</v>
       </c>
       <c r="AE5" t="n">
-        <v>202450.5882599674</v>
+        <v>235854.0957567851</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.156116863381977e-06</v>
+        <v>7.697622004966787e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.352083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>183128.9882576789</v>
+        <v>213344.5118811282</v>
       </c>
     </row>
   </sheetData>
